--- a/文档/其他文档/Others/Games/皇室战争国际服2023.4版本更新后商店代币可购买物品记录.xlsx
+++ b/文档/其他文档/Others/Games/皇室战争国际服2023.4版本更新后商店代币可购买物品记录.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eason Code Project\DatasOnTelecom\文档\其他文档\Others\Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Season 2023.4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>25稀有外卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>75稀有外卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩余未兑换的代币在赛季后可自动转换为金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +101,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150稀有外卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,23 +206,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,15 +517,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -515,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -530,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -553,7 +575,8 @@
         <v>400</v>
       </c>
       <c r="H2" s="1">
-        <v>30500</v>
+        <f>30500+3200</f>
+        <v>33700</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -592,12 +615,12 @@
       </c>
       <c r="H4" s="1">
         <f>H2-B7-C7-D7-E7-F7</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -616,20 +639,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <f>B2*3</f>
-        <v>1800</v>
+        <f>(B2*3)+(B3*3)</f>
+        <v>4800</v>
       </c>
       <c r="C7" s="3">
         <f>(C2*3)+(C3*3)+(C4*3)</f>
@@ -643,25 +666,30 @@
         <f>E2*1</f>
         <v>15000</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <f>(F2*1)</f>
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
